--- a/Datasets/SeperateCountryFiles/Syria.xlsx
+++ b/Datasets/SeperateCountryFiles/Syria.xlsx
@@ -364,19 +364,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="8" max="8"/>
     <col width="27" customWidth="1" min="8" max="8"/>
     <col width="27" customWidth="1" min="9" max="9"/>
+    <col width="27" customWidth="1" min="9" max="9"/>
+    <col width="27" customWidth="1" min="10" max="10"/>
     <col width="27" customWidth="1" min="10" max="10"/>
     <col width="27" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="12" max="12"/>
     <col width="27" customWidth="1" min="12" max="12"/>
     <col width="27" customWidth="1" min="13" max="13"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
     <col width="27" customWidth="1" min="14" max="14"/>
+    <col width="27" customWidth="1" min="14" max="14"/>
+    <col width="27" customWidth="1" min="15" max="15"/>
     <col width="27" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
